--- a/sputnik/personal/ee/229ee.xlsx
+++ b/sputnik/personal/ee/229ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -48,7 +42,19 @@
     <t>к доплате</t>
   </si>
   <si>
-    <t>переплата</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -58,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,16 +95,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -139,10 +136,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -152,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -171,23 +168,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,10 +488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F26:F27"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -511,79 +502,95 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43239</v>
+        <v>43407</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>12300</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>13050</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>9300</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="3">
+        <v>9635</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43407</v>
+        <v>43543</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>12750</v>
+        <v>13350</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>450</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F12" si="1">D4*E4</f>
-        <v>2025</v>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>300</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
+        <v>1371</v>
+      </c>
+      <c r="G4" s="11">
+        <f>SUM(F4,F5)</f>
+        <v>1849</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1820</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -592,197 +599,255 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>9550</v>
+        <v>9835</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="F5" s="6">
+        <v>200</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="10">
         <f t="shared" si="1"/>
-        <v>587.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43407</v>
+        <v>43555</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>13050</v>
+        <v>13650</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D6:D21" si="2">SUM(C6,-C4)</f>
         <v>300</v>
       </c>
-      <c r="E6" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="12">
+        <v>4.57</v>
+      </c>
+      <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1371</v>
+      </c>
+      <c r="G6" s="11">
+        <f>SUM(F6,F7)</f>
+        <v>1849</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>9635</v>
+        <v>10035</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2.39</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>199.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43543</v>
+        <v>43588</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>13350</v>
+        <v>13950</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="E8" s="12">
         <v>4.57</v>
       </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
+      <c r="F8" s="10">
+        <f t="shared" ref="F8:F13" si="3">D8*E8</f>
         <v>1371</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="11">
+        <f>SUM(F8,F9)</f>
+        <v>1849</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>9835</v>
+        <v>10235</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="E9" s="12">
         <v>2.39</v>
       </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
+      <c r="F9" s="10">
+        <f t="shared" si="3"/>
         <v>478</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43543</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11">
-        <v>29</v>
+        <v>43606</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>14050</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4.57</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="3"/>
+        <v>457</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(F10,F11)</f>
+        <v>935</v>
+      </c>
+      <c r="H10" s="11">
+        <v>930</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43555</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10435</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2.39</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="3"/>
+        <v>478</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43698</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="3">
-        <v>13650</v>
-      </c>
-      <c r="D11" s="3">
-        <f>SUM(C11,-C8)</f>
-        <v>300</v>
-      </c>
-      <c r="E11" s="12">
-        <v>4.57</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3">
+        <v>14150</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="3"/>
+        <v>449</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(F12,F13)</f>
+        <v>935</v>
+      </c>
+      <c r="H12" s="11">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3">
-        <v>10035</v>
-      </c>
-      <c r="D12" s="3">
-        <f>SUM(C12,-C9)</f>
+      <c r="C13" s="3">
+        <v>10635</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="E12" s="12">
-        <v>2.39</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="1"/>
-        <v>478</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43555</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11">
-        <v>29</v>
-      </c>
+      <c r="E13" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="3"/>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43588</v>
+        <v>43829</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>13950</v>
+        <v>14200</v>
       </c>
       <c r="D14" s="3">
-        <f>SUM(C14,-C11)</f>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="E14" s="12">
-        <v>4.57</v>
-      </c>
-      <c r="F14" s="6">
-        <f>D14*E14</f>
-        <v>1371</v>
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14:F19" si="4">D14*E14</f>
+        <v>224.5</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(F14,F15)</f>
+        <v>346</v>
+      </c>
+      <c r="H14" s="11">
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -791,252 +856,196 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>10235</v>
+        <v>10685</v>
       </c>
       <c r="D15" s="3">
-        <f>SUM(C15,-C12)</f>
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="E15" s="12">
-        <v>2.39</v>
-      </c>
-      <c r="F15" s="6">
-        <f>D15*E15</f>
-        <v>478</v>
-      </c>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="4"/>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43606</v>
+        <v>43853</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>14050</v>
+        <v>14400</v>
       </c>
       <c r="D16" s="3">
-        <f>SUM(C16,-C14)</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E16" s="12">
-        <v>4.57</v>
-      </c>
-      <c r="F16" s="6">
-        <f>D16*E16</f>
-        <v>457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="4"/>
+        <v>898</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(F16,F17)</f>
+        <v>1384</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>10435</v>
+        <v>10885</v>
       </c>
       <c r="D17" s="3">
-        <f>SUM(C17,-C15)</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="E17" s="12">
-        <v>2.39</v>
-      </c>
-      <c r="F17" s="6">
-        <f>D17*E17</f>
-        <v>478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>43698</v>
-      </c>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="4"/>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>43882</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>14700</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="4"/>
+        <v>1347</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>2076</v>
+      </c>
+      <c r="H18" s="11">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>11185</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="4"/>
+        <v>729</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>43917</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="3">
-        <v>14150</v>
-      </c>
-      <c r="D19" s="3">
-        <f>SUM(C19,-C16)</f>
-        <v>100</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="C20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="E20" s="12">
         <v>4.49</v>
       </c>
-      <c r="F19" s="6">
-        <f>D19*E19</f>
-        <v>449</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
+      <c r="F20" s="10">
+        <f t="shared" ref="F20:F21" si="5">D20*E20</f>
+        <v>1347</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>2076</v>
+      </c>
+      <c r="H20" s="11">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="3">
-        <v>10635</v>
-      </c>
-      <c r="D20" s="3">
-        <f>SUM(C20,-C17)</f>
-        <v>200</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="C21" s="3">
+        <v>11485</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="E21" s="12">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F20" s="6">
-        <f>D20*E20</f>
-        <v>486.00000000000006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>43829</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>14200</v>
-      </c>
-      <c r="D22" s="3">
-        <f>SUM(C22,-C19)</f>
-        <v>50</v>
-      </c>
-      <c r="E22" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F22" s="6">
-        <f>D22*E22</f>
-        <v>224.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>10685</v>
-      </c>
-      <c r="D23" s="3">
-        <f>SUM(C23,-C20)</f>
-        <v>50</v>
-      </c>
-      <c r="E23" s="12">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F23" s="6">
-        <f>D23*E23</f>
-        <v>121.50000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>43853</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>14400</v>
-      </c>
-      <c r="D24" s="3">
-        <f>SUM(C24,-C22)</f>
-        <v>200</v>
-      </c>
-      <c r="E24" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F24" s="6">
-        <f>D24*E24</f>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>10885</v>
-      </c>
-      <c r="D25" s="3">
-        <f>SUM(C25,-C23)</f>
-        <v>200</v>
-      </c>
-      <c r="E25" s="12">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F25" s="6">
-        <f>D25*E25</f>
-        <v>486.00000000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>43882</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
-        <v>14700</v>
-      </c>
-      <c r="D26" s="3">
-        <f>SUM(C26,-C24)</f>
-        <v>300</v>
-      </c>
-      <c r="E26" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F26" s="6">
-        <f>D26*E26</f>
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>11185</v>
-      </c>
-      <c r="D27" s="3">
-        <f>SUM(C27,-C25)</f>
-        <v>300</v>
-      </c>
-      <c r="E27" s="12">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F27" s="6">
-        <f>D27*E27</f>
+      <c r="F21" s="10">
+        <f t="shared" si="5"/>
         <v>729</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(G2:G21)</f>
+        <v>13299</v>
+      </c>
+      <c r="H22" s="11">
+        <f>SUM(H2:H21)</f>
+        <v>13270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11">
+        <f>SUM(H22,-G22)</f>
+        <v>-29</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/229ee.xlsx
+++ b/sputnik/personal/ee/229ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -488,10 +488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1026,25 +1026,76 @@
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="4">
+        <v>43944</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>15300</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="6">SUM(C22,-C20)</f>
+        <v>300</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" ref="F22:F23" si="7">D22*E22</f>
+        <v>1347</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(F22,F23)</f>
+        <v>2076</v>
+      </c>
+      <c r="H22" s="11">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>11785</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="7"/>
+        <v>729</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="11">
-        <f>SUM(G2:G21)</f>
-        <v>13299</v>
-      </c>
-      <c r="H22" s="11">
-        <f>SUM(H2:H21)</f>
-        <v>13270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+      <c r="G24" s="11">
+        <f>SUM(G2:G23)</f>
+        <v>15375</v>
+      </c>
+      <c r="H24" s="11">
+        <f>SUM(H2:H23)</f>
+        <v>15346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11">
+        <f>SUM(H24,-G24)</f>
         <v>-29</v>
       </c>
     </row>

--- a/sputnik/personal/ee/229ee.xlsx
+++ b/sputnik/personal/ee/229ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -488,10 +488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1077,25 +1077,76 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="4">
+        <v>43972</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>15700</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="8">SUM(C24,-C22)</f>
+        <v>400</v>
+      </c>
+      <c r="E24" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" ref="F24:F25" si="9">D24*E24</f>
+        <v>1796</v>
+      </c>
+      <c r="G24" s="11">
+        <f>SUM(F24,F25)</f>
+        <v>2525</v>
+      </c>
+      <c r="H24" s="11">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>12085</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="E25" s="12">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="9"/>
+        <v>729</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="11">
-        <f>SUM(G2:G23)</f>
-        <v>15375</v>
-      </c>
-      <c r="H24" s="11">
-        <f>SUM(H2:H23)</f>
-        <v>15346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+      <c r="G26" s="11">
+        <f>SUM(G2:G25)</f>
+        <v>17900</v>
+      </c>
+      <c r="H26" s="11">
+        <f>SUM(H2:H25)</f>
+        <v>17871</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11">
-        <f>SUM(H24,-G24)</f>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11">
+        <f>SUM(H26,-G26)</f>
         <v>-29</v>
       </c>
     </row>

--- a/sputnik/personal/ee/229ee.xlsx
+++ b/sputnik/personal/ee/229ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -488,10 +488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1128,26 +1128,77 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="4">
+        <v>44011</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>15900</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="10">SUM(C26,-C24)</f>
+        <v>200</v>
+      </c>
+      <c r="E26" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" ref="F26:F27" si="11">D26*E26</f>
+        <v>898</v>
+      </c>
+      <c r="G26" s="11">
+        <f>SUM(F26,F27)</f>
+        <v>1141</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>12185</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="11"/>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="11">
-        <f>SUM(G2:G25)</f>
-        <v>17900</v>
-      </c>
-      <c r="H26" s="11">
-        <f>SUM(H2:H25)</f>
-        <v>17871</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
+      <c r="G28" s="11">
+        <f>SUM(G2:G27)</f>
+        <v>19041</v>
+      </c>
+      <c r="H28" s="11">
+        <f>SUM(H2:H27)</f>
+        <v>19112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11">
-        <f>SUM(H26,-G26)</f>
-        <v>-29</v>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11">
+        <f>SUM(H28,-G28)</f>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/229ee.xlsx
+++ b/sputnik/personal/ee/229ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -488,10 +488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1179,25 +1179,76 @@
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
+      <c r="A28" s="4">
+        <v>44074</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>16100</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:D29" si="12">SUM(C28,-C26)</f>
+        <v>200</v>
+      </c>
+      <c r="E28" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" ref="F28:F29" si="13">D28*E28</f>
+        <v>942</v>
+      </c>
+      <c r="G28" s="11">
+        <f>SUM(F28,F29)</f>
+        <v>1452</v>
+      </c>
+      <c r="H28" s="11">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>12385</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="E29" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="13"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G30" s="11">
         <f>SUM(G2:G27)</f>
         <v>19041</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H30" s="11">
         <f>SUM(H2:H27)</f>
         <v>19112</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="2" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11">
-        <f>SUM(H28,-G28)</f>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11">
+        <f>SUM(H30,-G30)</f>
         <v>71</v>
       </c>
     </row>

--- a/sputnik/personal/ee/229ee.xlsx
+++ b/sputnik/personal/ee/229ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -488,10 +488,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1230,25 +1230,76 @@
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="2" t="s">
+      <c r="A30" s="4">
+        <v>44098</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>16300</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" ref="D30:D31" si="14">SUM(C30,-C28)</f>
+        <v>200</v>
+      </c>
+      <c r="E30" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" ref="F30:F31" si="15">D30*E30</f>
+        <v>942</v>
+      </c>
+      <c r="G30" s="11">
+        <f>SUM(F30,F31)</f>
+        <v>1197</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>12485</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="E31" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="15"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="11">
-        <f>SUM(G2:G27)</f>
-        <v>19041</v>
-      </c>
-      <c r="H30" s="11">
-        <f>SUM(H2:H27)</f>
-        <v>19112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="2" t="s">
+      <c r="G32" s="11">
+        <f>SUM(G2:G31)</f>
+        <v>21690</v>
+      </c>
+      <c r="H32" s="11">
+        <f>SUM(H2:H31)</f>
+        <v>21761</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11">
-        <f>SUM(H30,-G30)</f>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11">
+        <f>SUM(H32,-G32)</f>
         <v>71</v>
       </c>
     </row>

--- a/sputnik/personal/ee/229ee.xlsx
+++ b/sputnik/personal/ee/229ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -39,9 +39,6 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>к доплате</t>
-  </si>
-  <si>
     <t>День/ ночь</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -149,10 +143,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,7 +484,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -509,799 +502,827 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43407</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>13050</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>9635</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43543</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>13350</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f t="shared" ref="D4:D5" si="0">C4-C2</f>
         <v>300</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>4.57</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <f t="shared" ref="F4:F7" si="1">D4*E4</f>
         <v>1371</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
         <v>1849</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>1820</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>9835</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>2.39</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <f t="shared" si="1"/>
         <v>478</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>43555</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
         <v>13650</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" ref="D6:D21" si="2">SUM(C6,-C4)</f>
         <v>300</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>4.57</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <f t="shared" si="1"/>
         <v>1371</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
         <v>1849</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>1820</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <v>10035</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>2.39</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <f t="shared" si="1"/>
         <v>478</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>43588</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <v>13950</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>4.57</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <f t="shared" ref="F8:F13" si="3">D8*E8</f>
         <v>1371</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
         <v>1849</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>1849</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>10235</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>2.39</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <f t="shared" si="3"/>
         <v>478</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>43606</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
         <v>14050</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>4.57</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <f t="shared" si="3"/>
         <v>457</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
         <v>935</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>930</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>10435</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>2.39</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <f t="shared" si="3"/>
         <v>478</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>43698</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
         <v>14150</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>4.49</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <f t="shared" si="3"/>
         <v>449</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
         <v>935</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>969</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>10635</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <f t="shared" si="3"/>
         <v>486.00000000000006</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>43829</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
         <v>14200</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>4.49</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <f t="shared" ref="F14:F19" si="4">D14*E14</f>
         <v>224.5</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
         <v>346</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
         <v>10685</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <f t="shared" si="4"/>
         <v>121.50000000000001</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>43853</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
         <v>14400</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>4.49</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <f t="shared" si="4"/>
         <v>898</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
         <v>1384</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>1384</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
         <v>10885</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <f t="shared" si="4"/>
         <v>486.00000000000006</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>43882</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
         <v>14700</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>4.49</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <f t="shared" si="4"/>
         <v>1347</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
         <v>2076</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>2076</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
         <v>11185</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <f t="shared" si="4"/>
         <v>729</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>43917</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
         <v>15000</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>4.49</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <f t="shared" ref="F20:F21" si="5">D20*E20</f>
         <v>1347</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <f>SUM(F20,F21)</f>
         <v>2076</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>2076</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
         <v>11485</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <f t="shared" si="5"/>
         <v>729</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>43944</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
         <v>15300</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <f t="shared" ref="D22:D23" si="6">SUM(C22,-C20)</f>
         <v>300</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>4.49</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <f t="shared" ref="F22:F23" si="7">D22*E22</f>
         <v>1347</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <f>SUM(F22,F23)</f>
         <v>2076</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>2076</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
         <v>11785</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <f t="shared" si="7"/>
         <v>729</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>43972</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
         <v>15700</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <f t="shared" ref="D24:D25" si="8">SUM(C24,-C22)</f>
         <v>400</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>4.49</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <f t="shared" ref="F24:F25" si="9">D24*E24</f>
         <v>1796</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <f>SUM(F24,F25)</f>
         <v>2525</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <v>2525</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
         <v>12085</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <f t="shared" si="9"/>
         <v>729</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>44011</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
         <v>15900</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <f t="shared" ref="D26:D27" si="10">SUM(C26,-C24)</f>
         <v>200</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <v>4.49</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <f t="shared" ref="F26:F27" si="11">D26*E26</f>
         <v>898</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <f>SUM(F26,F27)</f>
         <v>1141</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <v>1241</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
         <v>12185</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="11">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <f t="shared" si="11"/>
         <v>243.00000000000003</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>44074</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
         <v>16100</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <f t="shared" ref="D28:D29" si="12">SUM(C28,-C26)</f>
         <v>200</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <v>4.71</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <f t="shared" ref="F28:F29" si="13">D28*E28</f>
         <v>942</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <f>SUM(F28,F29)</f>
         <v>1452</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <v>1452</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
         <v>12385</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <f t="shared" si="12"/>
         <v>200</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <f t="shared" si="13"/>
         <v>509.99999999999994</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>44098</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
         <v>16300</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <f t="shared" ref="D30:D31" si="14">SUM(C30,-C28)</f>
         <v>200</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="11">
         <v>4.71</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <f t="shared" ref="F30:F31" si="15">D30*E30</f>
         <v>942</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <f>SUM(F30,F31)</f>
         <v>1197</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="10">
         <v>1197</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
         <v>12485</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <f t="shared" si="15"/>
         <v>254.99999999999997</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="11">
-        <f>SUM(G2:G31)</f>
-        <v>21690</v>
-      </c>
-      <c r="H32" s="11">
-        <f>SUM(H2:H31)</f>
-        <v>21761</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11">
-        <f>SUM(H32,-G32)</f>
-        <v>71</v>
-      </c>
+      <c r="A32" s="3">
+        <v>44132</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>16500</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" ref="D32:D33" si="16">SUM(C32,-C30)</f>
+        <v>200</v>
+      </c>
+      <c r="E32" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" ref="F32:F33" si="17">D32*E32</f>
+        <v>942</v>
+      </c>
+      <c r="G32" s="10">
+        <f>SUM(F32,F33)</f>
+        <v>1069.5</v>
+      </c>
+      <c r="H32" s="10">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>12535</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="E33" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="17"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/229ee.xlsx
+++ b/sputnik/personal/ee/229ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -174,6 +174,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -481,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1323,6 +1324,125 @@
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>16750</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" ref="D34:D35" si="18">SUM(C34,-C32)</f>
+        <v>250</v>
+      </c>
+      <c r="E34" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" ref="F34:F35" si="19">D34*E34</f>
+        <v>1177.5</v>
+      </c>
+      <c r="G34" s="10">
+        <f>SUM(F34,F35)</f>
+        <v>1815</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>12785</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="18"/>
+        <v>250</v>
+      </c>
+      <c r="E35" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="19"/>
+        <v>637.5</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>18150</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" ref="D36:D37" si="20">SUM(C36,-C34)</f>
+        <v>1400</v>
+      </c>
+      <c r="E36" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" ref="F36:F37" si="21">D36*E36</f>
+        <v>6594</v>
+      </c>
+      <c r="G36" s="10">
+        <f>SUM(F36,F37)</f>
+        <v>7614</v>
+      </c>
+      <c r="H36" s="10">
+        <v>7614</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>13185</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="20"/>
+        <v>400</v>
+      </c>
+      <c r="E37" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="21"/>
+        <v>1019.9999999999999</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="10">
+        <f>SUM(G2:G37)</f>
+        <v>32188.5</v>
+      </c>
+      <c r="H38" s="10">
+        <f>SUM(H2:H37)</f>
+        <v>32495</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="12"/>
+      <c r="H39" s="10">
+        <f>SUM(H38,-G38)</f>
+        <v>306.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/229ee.xlsx
+++ b/sputnik/personal/ee/229ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1428,19 +1428,70 @@
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>44217</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>18450</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" ref="D38:D39" si="22">SUM(C38,-C36)</f>
+        <v>300</v>
+      </c>
+      <c r="E38" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" ref="F38:F39" si="23">D38*E38</f>
+        <v>1413</v>
+      </c>
       <c r="G38" s="10">
-        <f>SUM(G2:G37)</f>
-        <v>32188.5</v>
+        <f>SUM(F38,F39)</f>
+        <v>1668</v>
       </c>
       <c r="H38" s="10">
-        <f>SUM(H2:H37)</f>
-        <v>32495</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G39" s="12"/>
-      <c r="H39" s="10">
-        <f>SUM(H38,-G38)</f>
+      <c r="A39" s="3"/>
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>13285</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="E39" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="23"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="10">
+        <f>SUM(G2:G39)</f>
+        <v>33856.5</v>
+      </c>
+      <c r="H40" s="10">
+        <f>SUM(H2:H39)</f>
+        <v>34163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="12"/>
+      <c r="H41" s="10">
+        <f>SUM(H40,-G40)</f>
         <v>306.5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/229ee.xlsx
+++ b/sputnik/personal/ee/229ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1479,19 +1479,121 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44267</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>18750</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40:D41" si="24">SUM(C40,-C38)</f>
+        <v>300</v>
+      </c>
+      <c r="E40" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" ref="F40:F41" si="25">D40*E40</f>
+        <v>1413</v>
+      </c>
       <c r="G40" s="10">
+        <f>SUM(F40,F41)</f>
+        <v>2178</v>
+      </c>
+      <c r="H40" s="10">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>13585</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="24"/>
+        <v>300</v>
+      </c>
+      <c r="E41" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="25"/>
+        <v>765</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>44293</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>19050</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42:D43" si="26">SUM(C42,-C40)</f>
+        <v>300</v>
+      </c>
+      <c r="E42" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" ref="F42:F43" si="27">D42*E42</f>
+        <v>1413</v>
+      </c>
+      <c r="G42" s="10">
+        <f>SUM(F42,F43)</f>
+        <v>2178</v>
+      </c>
+      <c r="H42" s="10">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>13885</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="26"/>
+        <v>300</v>
+      </c>
+      <c r="E43" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" si="27"/>
+        <v>765</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="10">
         <f>SUM(G2:G39)</f>
         <v>33856.5</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H44" s="10">
         <f>SUM(H2:H39)</f>
         <v>34163</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G41" s="12"/>
-      <c r="H41" s="10">
-        <f>SUM(H40,-G40)</f>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="12"/>
+      <c r="H45" s="10">
+        <f>SUM(H44,-G44)</f>
         <v>306.5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/229ee.xlsx
+++ b/sputnik/personal/ee/229ee.xlsx
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1581,19 +1581,39 @@
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G44" s="10">
+      <c r="A44" s="3"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="10">
         <f>SUM(G2:G39)</f>
         <v>33856.5</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H46" s="10">
         <f>SUM(H2:H39)</f>
         <v>34163</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G45" s="12"/>
-      <c r="H45" s="10">
-        <f>SUM(H44,-G44)</f>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="12"/>
+      <c r="H47" s="10">
+        <f>SUM(H46,-G46)</f>
         <v>306.5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/229ee.xlsx
+++ b/sputnik/personal/ee/229ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1581,39 +1581,90 @@
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="A44" s="3">
+        <v>44377</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>19350</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" ref="D44:D45" si="28">SUM(C44,-C42)</f>
+        <v>300</v>
+      </c>
+      <c r="E44" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" ref="F44:F45" si="29">D44*E44</f>
+        <v>1413</v>
+      </c>
+      <c r="G44" s="10">
+        <f>SUM(F44,F45)</f>
+        <v>2178</v>
+      </c>
+      <c r="H44" s="10">
+        <v>2178</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="9"/>
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>14185</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="28"/>
+        <v>300</v>
+      </c>
+      <c r="E45" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F45" s="9">
+        <f t="shared" si="29"/>
+        <v>765</v>
+      </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G46" s="10">
-        <f>SUM(G2:G39)</f>
-        <v>33856.5</v>
-      </c>
-      <c r="H46" s="10">
-        <f>SUM(H2:H39)</f>
-        <v>34163</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G47" s="12"/>
-      <c r="H47" s="10">
-        <f>SUM(H46,-G46)</f>
+      <c r="A47" s="3"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G48" s="10">
+        <f>SUM(G2:G47)</f>
+        <v>40390.5</v>
+      </c>
+      <c r="H48" s="10">
+        <f>SUM(H2:H47)</f>
+        <v>40697</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G49" s="12"/>
+      <c r="H49" s="10">
+        <f>SUM(H48,-G48)</f>
         <v>306.5</v>
       </c>
     </row>

--- a/sputnik/personal/ee/229ee.xlsx
+++ b/sputnik/personal/ee/229ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -58,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +90,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -143,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -175,6 +182,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -482,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -785,11 +793,11 @@
         <f t="shared" si="3"/>
         <v>449</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="13">
         <f>SUM(F12,F13)</f>
         <v>935</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="13">
         <v>969</v>
       </c>
     </row>
@@ -1295,11 +1303,11 @@
         <f t="shared" ref="F32:F33" si="17">D32*E32</f>
         <v>942</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="13">
         <f>SUM(F32,F33)</f>
         <v>1069.5</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="13">
         <v>1305</v>
       </c>
     </row>
@@ -1632,40 +1640,91 @@
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="A46" s="3">
+        <v>44438</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>19450</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" ref="D46:D47" si="30">SUM(C46,-C44)</f>
+        <v>100</v>
+      </c>
+      <c r="E46" s="11">
+        <v>4.96</v>
+      </c>
+      <c r="F46" s="9">
+        <f t="shared" ref="F46:F47" si="31">D46*E46</f>
+        <v>496</v>
+      </c>
+      <c r="G46" s="13">
+        <f>SUM(F46,F47)</f>
+        <v>496</v>
+      </c>
+      <c r="H46" s="13">
+        <v>494</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="9"/>
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>14185</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="11">
+        <v>2.68</v>
+      </c>
+      <c r="F47" s="9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G48" s="10">
-        <f>SUM(G2:G47)</f>
-        <v>40390.5</v>
-      </c>
-      <c r="H48" s="10">
-        <f>SUM(H2:H47)</f>
-        <v>40697</v>
-      </c>
-    </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G49" s="12"/>
-      <c r="H49" s="10">
-        <f>SUM(H48,-G48)</f>
-        <v>306.5</v>
+      <c r="A48" s="3"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="10">
+        <f>SUM(G2:G49)</f>
+        <v>40886.5</v>
+      </c>
+      <c r="H50" s="10">
+        <f>SUM(H2:H49)</f>
+        <v>41191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="12"/>
+      <c r="H51" s="10">
+        <f>SUM(H50,-G50)</f>
+        <v>304.5</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/229ee.xlsx
+++ b/sputnik/personal/ee/229ee.xlsx
@@ -102,12 +102,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -150,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -183,6 +189,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,7 +502,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1640,7 +1649,7 @@
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="14">
         <v>44438</v>
       </c>
       <c r="B46" s="2" t="s">
